--- a/IFTC.PPQA.RE03_Registro de resultados de metricas_(v1.0).xlsx
+++ b/IFTC.PPQA.RE03_Registro de resultados de metricas_(v1.0).xlsx
@@ -968,7 +968,7 @@
   <dimension ref="B2:L25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1098,7 +1098,7 @@
       <c r="F8" s="51"/>
       <c r="G8" s="37">
         <f>(L15/K15)</f>
-        <v>0.2857142857142857</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="H8" s="37">
         <f>(L16/K16)</f>
@@ -1238,7 +1238,7 @@
         <v>7</v>
       </c>
       <c r="L15" s="41">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.25">
